--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,57 +537,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.23562442678336</v>
+        <v>2.528209</v>
       </c>
       <c r="H2">
-        <v>2.23562442678336</v>
+        <v>7.584626999999999</v>
       </c>
       <c r="I2">
-        <v>0.07424956722724375</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="J2">
-        <v>0.07424956722724375</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60953819415585</v>
+        <v>1.976664666666667</v>
       </c>
       <c r="N2">
-        <v>1.60953819415585</v>
+        <v>5.929994</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8737289477891174</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8737289477891172</v>
       </c>
       <c r="Q2">
-        <v>3.598322902695596</v>
+        <v>4.997421400248666</v>
       </c>
       <c r="R2">
-        <v>3.598322902695596</v>
+        <v>44.97679260223799</v>
       </c>
       <c r="S2">
-        <v>0.07424956722724375</v>
+        <v>0.06812866517875653</v>
       </c>
       <c r="T2">
-        <v>0.07424956722724375</v>
+        <v>0.06812866517875651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.26296515543238</v>
+        <v>2.528209</v>
       </c>
       <c r="H3">
-        <v>1.26296515543238</v>
+        <v>7.584626999999999</v>
       </c>
       <c r="I3">
-        <v>0.0419456036937594</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="J3">
-        <v>0.0419456036937594</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.60953819415585</v>
+        <v>0.285667</v>
       </c>
       <c r="N3">
-        <v>1.60953819415585</v>
+        <v>0.857001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1262710522108828</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1262710522108827</v>
       </c>
       <c r="Q3">
-        <v>2.032790655556395</v>
+        <v>0.722225880403</v>
       </c>
       <c r="R3">
-        <v>2.032790655556395</v>
+        <v>6.500032923627</v>
       </c>
       <c r="S3">
-        <v>0.0419456036937594</v>
+        <v>0.009845934782878285</v>
       </c>
       <c r="T3">
-        <v>0.0419456036937594</v>
+        <v>0.009845934782878282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.55623788570869</v>
+        <v>1.344088666666667</v>
       </c>
       <c r="H4">
-        <v>4.55623788570869</v>
+        <v>4.032266</v>
       </c>
       <c r="I4">
-        <v>0.1513217905231918</v>
+        <v>0.04145415829794943</v>
       </c>
       <c r="J4">
-        <v>0.1513217905231918</v>
+        <v>0.04145415829794944</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.60953819415585</v>
+        <v>1.976664666666667</v>
       </c>
       <c r="N4">
-        <v>1.60953819415585</v>
+        <v>5.929994</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.8737289477891174</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8737289477891172</v>
       </c>
       <c r="Q4">
-        <v>7.333438898708033</v>
+        <v>2.656812576267111</v>
       </c>
       <c r="R4">
-        <v>7.333438898708033</v>
+        <v>23.911313186404</v>
       </c>
       <c r="S4">
-        <v>0.1513217905231918</v>
+        <v>0.03621969811115087</v>
       </c>
       <c r="T4">
-        <v>0.1513217905231918</v>
+        <v>0.03621969811115087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.17752041333277</v>
+        <v>1.344088666666667</v>
       </c>
       <c r="H5">
-        <v>9.17752041333277</v>
+        <v>4.032266</v>
       </c>
       <c r="I5">
-        <v>0.3048038439486894</v>
+        <v>0.04145415829794943</v>
       </c>
       <c r="J5">
-        <v>0.3048038439486894</v>
+        <v>0.04145415829794944</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.60953819415585</v>
+        <v>0.285667</v>
       </c>
       <c r="N5">
-        <v>1.60953819415585</v>
+        <v>0.857001</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.1262710522108828</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.1262710522108827</v>
       </c>
       <c r="Q5">
-        <v>14.77156963290408</v>
+        <v>0.3839617771406667</v>
       </c>
       <c r="R5">
-        <v>14.77156963290408</v>
+        <v>3.455655994266</v>
       </c>
       <c r="S5">
-        <v>0.3048038439486894</v>
+        <v>0.005234460186798571</v>
       </c>
       <c r="T5">
-        <v>0.3048038439486894</v>
+        <v>0.005234460186798571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.5686984094283</v>
+        <v>5.501111666666668</v>
       </c>
       <c r="H6">
-        <v>12.5686984094283</v>
+        <v>16.503335</v>
       </c>
       <c r="I6">
-        <v>0.4174316608503538</v>
+        <v>0.1696643677609784</v>
       </c>
       <c r="J6">
-        <v>0.4174316608503538</v>
+        <v>0.1696643677609785</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.60953819415585</v>
+        <v>1.976664666666667</v>
       </c>
       <c r="N6">
-        <v>1.60953819415585</v>
+        <v>5.929994</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.8737289477891174</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8737289477891172</v>
       </c>
       <c r="Q6">
-        <v>20.22980014080073</v>
+        <v>10.87385305888778</v>
       </c>
       <c r="R6">
-        <v>20.22980014080073</v>
+        <v>97.86467752999002</v>
       </c>
       <c r="S6">
-        <v>0.4174316608503538</v>
+        <v>0.1482406695211055</v>
       </c>
       <c r="T6">
-        <v>0.4174316608503538</v>
+        <v>0.1482406695211055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,427 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.501111666666668</v>
+      </c>
+      <c r="H7">
+        <v>16.503335</v>
+      </c>
+      <c r="I7">
+        <v>0.1696643677609784</v>
+      </c>
+      <c r="J7">
+        <v>0.1696643677609785</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.285667</v>
+      </c>
+      <c r="N7">
+        <v>0.857001</v>
+      </c>
+      <c r="O7">
+        <v>0.1262710522108828</v>
+      </c>
+      <c r="P7">
+        <v>0.1262710522108827</v>
+      </c>
+      <c r="Q7">
+        <v>1.571486066481667</v>
+      </c>
+      <c r="R7">
+        <v>14.143374598335</v>
+      </c>
+      <c r="S7">
+        <v>0.02142369823987292</v>
+      </c>
+      <c r="T7">
+        <v>0.02142369823987292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.30854909511847</v>
-      </c>
-      <c r="H7">
-        <v>0.30854909511847</v>
-      </c>
-      <c r="I7">
-        <v>0.01024753375676195</v>
-      </c>
-      <c r="J7">
-        <v>0.01024753375676195</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.60953819415585</v>
-      </c>
-      <c r="N7">
-        <v>1.60953819415585</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0.4966215533654038</v>
-      </c>
-      <c r="R7">
-        <v>0.4966215533654038</v>
-      </c>
-      <c r="S7">
-        <v>0.01024753375676195</v>
-      </c>
-      <c r="T7">
-        <v>0.01024753375676195</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.507065666666666</v>
+      </c>
+      <c r="H8">
+        <v>28.521197</v>
+      </c>
+      <c r="I8">
+        <v>0.293215332342906</v>
+      </c>
+      <c r="J8">
+        <v>0.2932153323429061</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.976664666666667</v>
+      </c>
+      <c r="N8">
+        <v>5.929994</v>
+      </c>
+      <c r="O8">
+        <v>0.8737289477891174</v>
+      </c>
+      <c r="P8">
+        <v>0.8737289477891172</v>
+      </c>
+      <c r="Q8">
+        <v>18.79228078697977</v>
+      </c>
+      <c r="R8">
+        <v>169.130527082818</v>
+      </c>
+      <c r="S8">
+        <v>0.2561907238036036</v>
+      </c>
+      <c r="T8">
+        <v>0.2561907238036036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.507065666666666</v>
+      </c>
+      <c r="H9">
+        <v>28.521197</v>
+      </c>
+      <c r="I9">
+        <v>0.293215332342906</v>
+      </c>
+      <c r="J9">
+        <v>0.2932153323429061</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.285667</v>
+      </c>
+      <c r="N9">
+        <v>0.857001</v>
+      </c>
+      <c r="O9">
+        <v>0.1262710522108828</v>
+      </c>
+      <c r="P9">
+        <v>0.1262710522108827</v>
+      </c>
+      <c r="Q9">
+        <v>2.715854927799667</v>
+      </c>
+      <c r="R9">
+        <v>24.442694350197</v>
+      </c>
+      <c r="S9">
+        <v>0.03702460853930242</v>
+      </c>
+      <c r="T9">
+        <v>0.03702460853930242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.22109733333333</v>
+      </c>
+      <c r="H10">
+        <v>39.663292</v>
+      </c>
+      <c r="I10">
+        <v>0.4077628770487342</v>
+      </c>
+      <c r="J10">
+        <v>0.4077628770487343</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.976664666666667</v>
+      </c>
+      <c r="N10">
+        <v>5.929994</v>
+      </c>
+      <c r="O10">
+        <v>0.8737289477891174</v>
+      </c>
+      <c r="P10">
+        <v>0.8737289477891172</v>
+      </c>
+      <c r="Q10">
+        <v>26.13367595336089</v>
+      </c>
+      <c r="R10">
+        <v>235.203083580248</v>
+      </c>
+      <c r="S10">
+        <v>0.3562742295112538</v>
+      </c>
+      <c r="T10">
+        <v>0.3562742295112538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.22109733333333</v>
+      </c>
+      <c r="H11">
+        <v>39.663292</v>
+      </c>
+      <c r="I11">
+        <v>0.4077628770487342</v>
+      </c>
+      <c r="J11">
+        <v>0.4077628770487343</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.285667</v>
+      </c>
+      <c r="N11">
+        <v>0.857001</v>
+      </c>
+      <c r="O11">
+        <v>0.1262710522108828</v>
+      </c>
+      <c r="P11">
+        <v>0.1262710522108827</v>
+      </c>
+      <c r="Q11">
+        <v>3.776831211921333</v>
+      </c>
+      <c r="R11">
+        <v>33.991480907292</v>
+      </c>
+      <c r="S11">
+        <v>0.05148864753748048</v>
+      </c>
+      <c r="T11">
+        <v>0.05148864753748048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.321922</v>
+      </c>
+      <c r="H12">
+        <v>0.9657660000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.009928664587796896</v>
+      </c>
+      <c r="J12">
+        <v>0.009928664587796898</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.976664666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.929994</v>
+      </c>
+      <c r="O12">
+        <v>0.8737289477891174</v>
+      </c>
+      <c r="P12">
+        <v>0.8737289477891172</v>
+      </c>
+      <c r="Q12">
+        <v>0.6363318428226667</v>
+      </c>
+      <c r="R12">
+        <v>5.726986585404</v>
+      </c>
+      <c r="S12">
+        <v>0.008674961663246853</v>
+      </c>
+      <c r="T12">
+        <v>0.008674961663246853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.321922</v>
+      </c>
+      <c r="H13">
+        <v>0.9657660000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.009928664587796896</v>
+      </c>
+      <c r="J13">
+        <v>0.009928664587796898</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.285667</v>
+      </c>
+      <c r="N13">
+        <v>0.857001</v>
+      </c>
+      <c r="O13">
+        <v>0.1262710522108828</v>
+      </c>
+      <c r="P13">
+        <v>0.1262710522108827</v>
+      </c>
+      <c r="Q13">
+        <v>0.09196249197400001</v>
+      </c>
+      <c r="R13">
+        <v>0.8276624277660001</v>
+      </c>
+      <c r="S13">
+        <v>0.001253702924550045</v>
+      </c>
+      <c r="T13">
+        <v>0.001253702924550045</v>
       </c>
     </row>
   </sheetData>
